--- a/biology/Botanique/Mertensia_virginica/Mertensia_virginica.xlsx
+++ b/biology/Botanique/Mertensia_virginica/Mertensia_virginica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mertensie de Virginie, Jacinthe de Virginie, Cloches de Virginie
 La Mertensie de Virginie (Mertensia virginica), également appelée Jacinthe de Virginie ou Cloches de Virginie, est une espèce de plantes de la famille des Boraginacées originaire d'Amérique du Nord.
